--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>“安贝尔”web后台项目开发计划时间表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,25 @@
   </si>
   <si>
     <t>新闻模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高文俊、
+张顺、
+卢江林、
+李钊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,17 +355,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -356,18 +390,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,6 +398,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,23 +504,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -522,23 +539,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -715,357 +715,505 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="F4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="15">
+        <v>42667</v>
+      </c>
+      <c r="H4" s="15">
+        <v>42673</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
     <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B20:N20"/>
+    <mergeCell ref="B29:N29"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B4:B8"/>
@@ -1073,6 +1221,8 @@
     <mergeCell ref="H4:H8"/>
     <mergeCell ref="I4:I8"/>
     <mergeCell ref="M4:M8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="C9:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>“安贝尔”web后台项目开发计划时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +106,6 @@
   </si>
   <si>
     <t>测试及调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收、上线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,6 +146,25 @@
   <si>
     <t>个人中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“安贝尔”web后台项目开发计划时间表      2016-10-24~2016-12-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线</t>
   </si>
 </sst>
 </file>
@@ -355,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,6 +380,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,6 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N29"/>
+  <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -715,187 +738,195 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="F4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="18">
         <v>42667</v>
       </c>
-      <c r="H4" s="15">
-        <v>42673</v>
-      </c>
-      <c r="I4" s="5">
-        <v>6</v>
+      <c r="H4" s="18">
+        <v>42677</v>
+      </c>
+      <c r="I4" s="8">
+        <v>10</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="22">
+        <v>42669</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="22">
+        <v>42667</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="22">
+        <v>42668</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -909,10 +940,10 @@
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -926,10 +957,10 @@
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -943,9 +974,11 @@
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -958,10 +991,8 @@
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -975,8 +1006,10 @@
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -990,10 +1023,8 @@
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1007,8 +1038,10 @@
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1022,10 +1055,8 @@
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1039,8 +1070,10 @@
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1054,7 +1087,7 @@
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
@@ -1069,10 +1102,8 @@
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1086,7 +1117,9 @@
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
@@ -1101,9 +1134,7 @@
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
@@ -1118,7 +1149,9 @@
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
@@ -1148,7 +1181,9 @@
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
@@ -1191,29 +1226,44 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
+    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="N4:N8"/>
-    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="B30:N30"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B4:B8"/>
@@ -1222,7 +1272,7 @@
     <mergeCell ref="I4:I8"/>
     <mergeCell ref="M4:M8"/>
     <mergeCell ref="F4:F8"/>
-    <mergeCell ref="C9:C19"/>
+    <mergeCell ref="C10:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>上线</t>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -389,6 +393,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,9 +437,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,7 +721,7 @@
   <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -738,21 +742,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -796,107 +800,107 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="19">
         <v>42667</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <v>42677</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <v>10</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="22">
+      <c r="F6" s="21"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8">
         <v>42669</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="22">
+      <c r="F7" s="21"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8">
         <v>42667</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="22">
+      <c r="F8" s="22"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="8">
         <v>42668</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -907,11 +911,15 @@
       <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="8">
+        <v>42670</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="6"/>
@@ -919,10 +927,10 @@
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -940,8 +948,8 @@
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
@@ -957,8 +965,8 @@
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
@@ -974,8 +982,8 @@
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
@@ -991,7 +999,7 @@
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
@@ -1006,7 +1014,7 @@
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1031,7 @@
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
@@ -1038,7 +1046,7 @@
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1063,7 @@
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
@@ -1070,7 +1078,7 @@
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1087,7 +1095,7 @@
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
@@ -1242,21 +1250,21 @@
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际历时(天)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,45 +125,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>社交圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“安贝尔”web后台项目开发计划时间表      2016-10-24~2016-12-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线</t>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP修改个人资料、修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢江林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李钊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高文俊、
+昌超、
 张顺、
 卢江林、
 李钊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“安贝尔”web后台项目开发计划时间表      2016-10-24~2016-12-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线</t>
-  </si>
-  <si>
-    <t>张顺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,58 +397,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N30"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -736,29 +768,27 @@
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -793,199 +823,192 @@
         <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="20">
         <v>42667</v>
       </c>
-      <c r="H4" s="19">
-        <v>42677</v>
-      </c>
-      <c r="I4" s="9">
-        <v>10</v>
+      <c r="H4" s="20">
+        <v>42673</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="17"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="17"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7">
+        <v>42669</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8">
-        <v>42669</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8">
+      <c r="F7" s="22"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7">
         <v>42667</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="18"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="7">
+        <v>42668</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="8">
-        <v>42668</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
+      <c r="D9" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="20">
+        <v>42674</v>
+      </c>
+      <c r="H9" s="20">
+        <v>42677</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7">
+        <v>42670</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8">
-        <v>42670</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="F11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -995,13 +1018,14 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1010,15 +1034,14 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1027,13 +1050,14 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1042,14 +1066,11 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1059,12 +1080,13 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1074,14 +1096,11 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1091,12 +1110,13 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1106,11 +1126,10 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
@@ -1121,14 +1140,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1138,12 +1156,11 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1153,14 +1170,11 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1170,11 +1184,12 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
@@ -1185,13 +1200,10 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
@@ -1202,11 +1214,12 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="2"/>
@@ -1217,9 +1230,8 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1232,11 +1244,12 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
@@ -1247,40 +1260,83 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+    </row>
+    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B30:N30"/>
+  <mergeCells count="16">
+    <mergeCell ref="C9:C23"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B33:M33"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="G4:G8"/>
     <mergeCell ref="H4:H8"/>
     <mergeCell ref="I4:I8"/>
-    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="L4:L8"/>
     <mergeCell ref="F4:F8"/>
-    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考勤记录模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +118,6 @@
   </si>
   <si>
     <t>新闻模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交圈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,6 +173,66 @@
 张顺、
 卢江林、
 李钊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app上传头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生定位（考勤记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习园地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康档案（每日食谱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头条资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,56 +464,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -469,6 +476,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,6 +627,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -598,6 +679,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M33"/>
+  <dimension ref="B2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -773,20 +871,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="B2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -827,121 +925,121 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="27">
         <v>42667</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="27">
         <v>42673</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="17">
         <v>6</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="7">
         <v>42669</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="7">
         <v>42667</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="7">
         <v>42668</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>30</v>
+      <c r="D9" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="20">
+        <v>31</v>
+      </c>
+      <c r="G9" s="27">
         <v>42674</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="27">
         <v>42677</v>
       </c>
       <c r="I9" s="8"/>
@@ -954,16 +1052,16 @@
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="5"/>
       <c r="K10" s="2"/>
       <c r="L10" s="5"/>
@@ -971,16 +1069,16 @@
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="8"/>
       <c r="J11" s="7"/>
       <c r="K11" s="2"/>
@@ -988,224 +1086,236 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="7"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1217,11 +1327,11 @@
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1233,9 +1343,11 @@
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1247,11 +1359,11 @@
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1263,8 +1375,8 @@
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1277,8 +1389,10 @@
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1291,8 +1405,8 @@
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1303,29 +1417,221 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:C23"/>
+    <mergeCell ref="D15:D29"/>
+    <mergeCell ref="C9:C36"/>
     <mergeCell ref="M4:M8"/>
-    <mergeCell ref="D13:D16"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B46:M46"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B4:B8"/>
@@ -1334,9 +1640,9 @@
     <mergeCell ref="I4:I8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="F4:F8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作者：张顺    创建时间：2016-10-23 23:16:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计划历时(天)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,23 +101,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考勤记录模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生信息模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知公告模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,11 +164,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学生定位（考勤记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习园地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>班级圈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生定位（考勤记录）</t>
+    <t>课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康档案（每日食谱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头条资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李钊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢江林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续数据库搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需对接考勤机，后面再做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,43 +240,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班级圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资讯通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康档案（每日食谱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头条资讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>聊天记录</t>
+  </si>
+  <si>
+    <t>班级架构</t>
+  </si>
+  <si>
+    <t>班级通知</t>
+  </si>
+  <si>
+    <t>典例分享</t>
+  </si>
+  <si>
+    <t>育儿互动</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>成绩查询</t>
+  </si>
+  <si>
+    <t>通知/公告</t>
+  </si>
+  <si>
+    <t>联系我们</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>意见反馈</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>作者：张顺    创建时间：2016-10-23 23:16:04    最后修改时间：2016-10-31 17:51:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李钊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢江林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢江林/李钊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果收集和整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG修复与系统完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺
+卢江林
+李钊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +364,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -291,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -431,11 +536,28 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,79 +574,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -533,6 +651,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,23 +784,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -679,23 +819,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M46"/>
+  <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -860,31 +983,31 @@
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="42" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -899,8 +1022,8 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -909,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
@@ -918,421 +1041,465 @@
         <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="27">
+      <c r="F4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="18">
         <v>42667</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="18">
         <v>42673</v>
       </c>
-      <c r="I4" s="17">
-        <v>6</v>
+      <c r="I4" s="15">
+        <v>7</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="6">
+        <v>42669</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="7">
-        <v>42669</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="7">
+      <c r="F7" s="27"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="6">
         <v>42667</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="6">
+        <v>42668</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="7">
-        <v>42668</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="18">
+        <v>42674</v>
+      </c>
+      <c r="H9" s="18">
+        <v>42680</v>
+      </c>
+      <c r="I9" s="15">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6">
+        <v>42670</v>
+      </c>
+      <c r="K9" s="6">
+        <v>42672</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="27">
-        <v>42674</v>
-      </c>
-      <c r="H9" s="27">
-        <v>42677</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7">
-        <v>42670</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="K10" s="2"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="6">
+        <v>42672</v>
+      </c>
+      <c r="K12" s="6">
+        <v>42674</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="18">
+        <v>42681</v>
+      </c>
+      <c r="H15" s="18">
+        <v>42694</v>
+      </c>
+      <c r="I15" s="15">
+        <v>14</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="3" t="s">
+      <c r="F16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="3" t="s">
+      <c r="F20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="3" t="s">
+      <c r="F22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="7"/>
+      <c r="F25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1342,59 +1509,73 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="18">
+        <v>42695</v>
+      </c>
+      <c r="H28" s="18">
+        <v>42698</v>
+      </c>
+      <c r="I28" s="15">
+        <v>4</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1404,11 +1585,11 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1418,43 +1599,55 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="18">
+        <v>42699</v>
+      </c>
+      <c r="H33" s="18">
+        <v>42701</v>
+      </c>
+      <c r="I33" s="15">
+        <v>3</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1464,115 +1657,145 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="18">
+        <v>42702</v>
+      </c>
+      <c r="H36" s="18">
+        <v>42708</v>
+      </c>
+      <c r="I36" s="15">
+        <v>7</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1583,10 +1806,10 @@
     </row>
     <row r="44" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1597,41 +1820,228 @@
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="C45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="18">
+        <v>42709</v>
+      </c>
+      <c r="H45" s="18">
+        <v>42715</v>
+      </c>
+      <c r="I45" s="15">
+        <v>7</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
+    <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="6">
+        <v>42716</v>
+      </c>
+      <c r="H50" s="6">
+        <v>42719</v>
+      </c>
+      <c r="I50" s="2">
+        <v>4</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="41"/>
+      <c r="G52" s="6">
+        <v>42720</v>
+      </c>
+      <c r="H52" s="6">
+        <v>42722</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D15:D29"/>
-    <mergeCell ref="C9:C36"/>
+  <mergeCells count="39">
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I36:I42"/>
     <mergeCell ref="M4:M8"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B56:M56"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B4:B8"/>
@@ -1643,6 +2053,20 @@
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="G9:G14"/>
     <mergeCell ref="H9:H14"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B9:B43"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="C9:C43"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="H36:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -557,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,6 +601,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,9 +637,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -625,18 +676,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -652,45 +691,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -784,6 +785,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -819,6 +837,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -974,7 +1009,7 @@
   <dimension ref="B2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I9" sqref="I9:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -983,7 +1018,7 @@
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="23" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
@@ -994,20 +1029,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1022,7 +1057,7 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1048,111 +1083,111 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="33">
         <v>42667</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="33">
         <v>42673</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="24">
         <v>7</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="6">
         <v>42669</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="6">
         <v>42667</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="6">
         <v>42668</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1161,13 +1196,13 @@
       <c r="F9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="33">
         <v>42674</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="33">
         <v>42680</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="24">
         <v>7</v>
       </c>
       <c r="J9" s="6">
@@ -1180,53 +1215,58 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="K10" s="2"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="45">
+        <v>42673</v>
+      </c>
+      <c r="K10" s="6">
+        <v>42674</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="6"/>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="6">
         <v>42672</v>
       </c>
@@ -1237,41 +1277,41 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="6"/>
       <c r="K13" s="2"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="6"/>
       <c r="K14" s="2"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1280,13 +1320,13 @@
       <c r="F15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="33">
         <v>42681</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="33">
         <v>42694</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="24">
         <v>14</v>
       </c>
       <c r="J15" s="6"/>
@@ -1295,18 +1335,18 @@
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="6"/>
       <c r="K16" s="2"/>
       <c r="L16" s="11"/>
@@ -1315,190 +1355,190 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="6"/>
       <c r="K17" s="2"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="6"/>
       <c r="K18" s="2"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="6"/>
       <c r="K19" s="2"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="6"/>
       <c r="K20" s="2"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="6"/>
       <c r="K21" s="2"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="6"/>
       <c r="K22" s="2"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="6"/>
       <c r="K23" s="2"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="6"/>
       <c r="K24" s="2"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="6"/>
       <c r="K25" s="2"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="32"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1509,24 +1549,24 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="15" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="33">
         <v>42695</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="33">
         <v>42698</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="24">
         <v>4</v>
       </c>
       <c r="J28" s="2"/>
@@ -1535,46 +1575,46 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="33" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="33" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1585,10 +1625,10 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1599,24 +1639,24 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="33">
         <v>42699</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="33">
         <v>42701</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="24">
         <v>3</v>
       </c>
       <c r="J33" s="2"/>
@@ -1625,28 +1665,28 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="33" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="33"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1657,24 +1697,24 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="15" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="33">
         <v>42702</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="33">
         <v>42708</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="24">
         <v>7</v>
       </c>
       <c r="J36" s="2"/>
@@ -1683,118 +1723,118 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="35" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="35" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="35" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="35" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="35" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="36" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="32"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1808,7 +1848,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="32"/>
+      <c r="E44" s="15"/>
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1820,23 +1860,23 @@
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="33">
         <v>42709</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="33">
         <v>42715</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="24">
         <v>7</v>
       </c>
       <c r="J45" s="2"/>
@@ -1846,15 +1886,15 @@
     </row>
     <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="16"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="25"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -1862,15 +1902,15 @@
     </row>
     <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="16"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -1878,15 +1918,15 @@
     </row>
     <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -1911,11 +1951,11 @@
       <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="6">
         <v>42716</v>
       </c>
@@ -1949,11 +1989,11 @@
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="41"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="41"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="6">
         <v>42720</v>
       </c>
@@ -2011,34 +2051,35 @@
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="22"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I26"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="B9:B43"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="C9:C43"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="H36:H42"/>
     <mergeCell ref="M4:M8"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B56:M56"/>
@@ -2055,18 +2096,17 @@
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B9:B43"/>
-    <mergeCell ref="G15:G26"/>
-    <mergeCell ref="H15:H26"/>
-    <mergeCell ref="D15:D26"/>
-    <mergeCell ref="C9:C43"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -628,6 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,61 +638,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1029,20 +1029,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1083,111 +1083,111 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="28">
         <v>42667</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="28">
         <v>42673</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="25">
         <v>7</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="6">
         <v>42669</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="6">
         <v>42667</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="6">
         <v>42668</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+      <c r="B9" s="25">
         <v>2</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1196,13 +1196,13 @@
       <c r="F9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="28">
         <v>42674</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="28">
         <v>42680</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="25">
         <v>7</v>
       </c>
       <c r="J9" s="6">
@@ -1215,58 +1215,58 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="45">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24">
         <v>42673</v>
       </c>
       <c r="K10" s="6">
-        <v>42674</v>
+        <v>42675</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="6"/>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="6">
         <v>42672</v>
       </c>
@@ -1277,41 +1277,41 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="6"/>
       <c r="K13" s="2"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="6"/>
       <c r="K14" s="2"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1320,33 +1320,35 @@
       <c r="F15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="28">
         <v>42681</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="28">
         <v>42694</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="25">
         <v>14</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6">
+        <v>42675</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="6"/>
       <c r="K16" s="2"/>
       <c r="L16" s="11"/>
@@ -1355,188 +1357,188 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="6"/>
       <c r="K17" s="2"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="6"/>
       <c r="K18" s="2"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="6"/>
       <c r="K19" s="2"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="6"/>
       <c r="K20" s="2"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="6"/>
       <c r="K21" s="2"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="6"/>
       <c r="K22" s="2"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="6"/>
       <c r="K23" s="2"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="6"/>
       <c r="K24" s="2"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="6"/>
       <c r="K25" s="2"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="4"/>
       <c r="E27" s="15"/>
       <c r="F27" s="3"/>
@@ -1549,9 +1551,9 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -1560,13 +1562,13 @@
       <c r="F28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="28">
         <v>42695</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="28">
         <v>42698</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="25">
         <v>4</v>
       </c>
       <c r="J28" s="2"/>
@@ -1575,44 +1577,44 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="12"/>
       <c r="E31" s="15"/>
       <c r="F31" s="3"/>
@@ -1625,8 +1627,8 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="4"/>
       <c r="E32" s="15"/>
       <c r="F32" s="3"/>
@@ -1639,9 +1641,9 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="16" t="s">
@@ -1650,13 +1652,13 @@
       <c r="F33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="28">
         <v>42699</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="28">
         <v>42701</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="25">
         <v>3</v>
       </c>
       <c r="J33" s="2"/>
@@ -1665,26 +1667,26 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="12"/>
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
@@ -1697,9 +1699,9 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="24" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="17" t="s">
@@ -1708,13 +1710,13 @@
       <c r="F36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="28">
         <v>42702</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="28">
         <v>42708</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="25">
         <v>7</v>
       </c>
       <c r="J36" s="2"/>
@@ -1723,116 +1725,116 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="4"/>
       <c r="E43" s="15"/>
       <c r="F43" s="3"/>
@@ -1860,23 +1862,23 @@
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="30"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="28">
         <v>42709</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H45" s="28">
         <v>42715</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="25">
         <v>7</v>
       </c>
       <c r="J45" s="2"/>
@@ -1886,15 +1888,15 @@
     </row>
     <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="25"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -1902,15 +1904,15 @@
     </row>
     <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="25"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -1918,15 +1920,15 @@
     </row>
     <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="32"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="26"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -2051,35 +2053,34 @@
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="39"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B9:B43"/>
-    <mergeCell ref="G15:G26"/>
-    <mergeCell ref="H15:H26"/>
-    <mergeCell ref="D15:D26"/>
-    <mergeCell ref="C9:C43"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I36:I42"/>
     <mergeCell ref="M4:M8"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B56:M56"/>
@@ -2096,17 +2097,18 @@
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I26"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="B9:B43"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="C9:C43"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="H36:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1009,7 +1009,7 @@
   <dimension ref="B2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1249,9 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6">
+        <v>42675</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1289,8 +1291,12 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="6">
+        <v>42676</v>
+      </c>
+      <c r="K13" s="6">
+        <v>42676</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
@@ -1332,7 +1338,9 @@
       <c r="J15" s="6">
         <v>42675</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="6">
+        <v>42677</v>
+      </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
@@ -1387,7 +1395,9 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <v>42677</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -785,23 +785,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -837,23 +820,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1008,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1364,9 @@
       <c r="J18" s="6">
         <v>42677</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="6">
+        <v>42678</v>
+      </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
@@ -1599,7 +1567,9 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="6">
+        <v>42678</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\版本控制\安贝尔WEB端\开发相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目版本管理\安贝儿_WEB\开发相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -513,6 +513,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -525,15 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,15 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -874,20 +874,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -928,111 +928,111 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="23">
         <v>42667</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="23">
         <v>42673</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="20">
         <v>7</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="18">
         <v>42669</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="18">
         <v>42667</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="18">
         <v>42668</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1041,13 +1041,13 @@
       <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="23">
         <v>42674</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="23">
         <v>42680</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="20">
         <v>7</v>
       </c>
       <c r="J9" s="18">
@@ -1060,18 +1060,18 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="19">
         <v>42673</v>
       </c>
@@ -1082,18 +1082,18 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="18">
         <v>42675</v>
       </c>
@@ -1102,18 +1102,18 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="18">
         <v>42672</v>
       </c>
@@ -1124,18 +1124,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="18">
         <v>42676</v>
       </c>
@@ -1146,23 +1146,23 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="18"/>
       <c r="K14" s="11"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1171,37 +1171,37 @@
       <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="23">
         <v>42681</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="23">
         <v>42694</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="20">
         <v>14</v>
       </c>
       <c r="J15" s="18">
         <v>42675</v>
       </c>
       <c r="K15" s="18">
-        <v>42677</v>
+        <v>42686</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="18"/>
       <c r="K16" s="11"/>
       <c r="L16" s="5"/>
@@ -1210,36 +1210,36 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="18"/>
       <c r="K17" s="11"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="18">
         <v>42677</v>
       </c>
@@ -1250,36 +1250,38 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="18"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="18">
+        <v>42686</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="18">
         <v>42681</v>
       </c>
@@ -1288,54 +1290,54 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="18"/>
       <c r="K21" s="11"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="18"/>
       <c r="K22" s="11"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="18">
         <v>42681</v>
       </c>
@@ -1344,62 +1346,62 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="18"/>
       <c r="K24" s="11"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="18"/>
       <c r="K25" s="11"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="5"/>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
@@ -1412,9 +1414,9 @@
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -1423,13 +1425,13 @@
       <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="23">
         <v>42695</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="23">
         <v>42698</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="20">
         <v>4</v>
       </c>
       <c r="J28" s="11"/>
@@ -1438,18 +1440,18 @@
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="18">
         <v>42678</v>
       </c>
@@ -1458,26 +1460,26 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="5"/>
       <c r="E31" s="10"/>
       <c r="F31" s="4"/>
@@ -1490,8 +1492,8 @@
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="5"/>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
@@ -1504,9 +1506,9 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -1515,13 +1517,13 @@
       <c r="F33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="23">
         <v>42699</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="23">
         <v>42701</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="20">
         <v>3</v>
       </c>
       <c r="J33" s="11"/>
@@ -1530,26 +1532,26 @@
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="5"/>
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
@@ -1562,9 +1564,9 @@
       <c r="M35" s="11"/>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="24" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -1573,13 +1575,13 @@
       <c r="F36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="23">
         <v>42702</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="23">
         <v>42708</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="20">
         <v>7</v>
       </c>
       <c r="J36" s="11"/>
@@ -1588,116 +1590,116 @@
       <c r="M36" s="11"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="14" t="s">
         <v>53</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
     <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
     <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
     <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="5"/>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
@@ -1725,23 +1727,23 @@
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="27"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="23">
         <v>42709</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="23">
         <v>42715</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="20">
         <v>7</v>
       </c>
       <c r="J45" s="11"/>
@@ -1751,15 +1753,15 @@
     </row>
     <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="25"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -1767,15 +1769,15 @@
     </row>
     <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="25"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -1783,15 +1785,15 @@
     </row>
     <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="29"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="26"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="22"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -1916,46 +1918,23 @@
       <c r="M55" s="11"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="23"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I26"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="H15:H26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="G15:G26"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G33:G34"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B56:M56"/>
     <mergeCell ref="B4:B8"/>
@@ -1972,6 +1951,29 @@
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目版本管理\安贝儿_WEB\开发相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\github\版本控制\ABE\开发相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>“安贝尔”web后台项目开发计划时间表      2016-10-24~2016-12-20</t>
   </si>
@@ -172,9 +172,6 @@
     <t>典例分享</t>
   </si>
   <si>
-    <t>卢江林/李钊</t>
-  </si>
-  <si>
     <t>育儿互动</t>
   </si>
   <si>
@@ -228,7 +225,16 @@
     <t>上线</t>
   </si>
   <si>
-    <t>作者：张顺    创建时间：2016-10-23 23:16:04    最后修改时间：2016-10-31 17:51:37</t>
+    <t>李钊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李钊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者：张顺    创建时间：2016-10-23 23:16:04    最后修改时间：2016-11-13 20:54:49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -513,6 +519,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,6 +537,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,50 +579,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -874,20 +883,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -928,111 +937,111 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+      <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="37">
         <v>42667</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="37">
         <v>42673</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="23">
         <v>7</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="18">
         <v>42669</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="18">
         <v>42667</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="18">
         <v>42668</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="23">
         <v>2</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1041,13 +1050,13 @@
       <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="37">
         <v>42674</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="37">
         <v>42680</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="23">
         <v>7</v>
       </c>
       <c r="J9" s="18">
@@ -1060,18 +1069,18 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="19">
         <v>42673</v>
       </c>
@@ -1082,18 +1091,18 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="18">
         <v>42675</v>
       </c>
@@ -1102,18 +1111,18 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="18">
         <v>42672</v>
       </c>
@@ -1124,18 +1133,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="18">
         <v>42676</v>
       </c>
@@ -1146,23 +1155,23 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="18"/>
       <c r="K14" s="11"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1171,13 +1180,13 @@
       <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="37">
         <v>42681</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="37">
         <v>42694</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="23">
         <v>14</v>
       </c>
       <c r="J15" s="18">
@@ -1190,18 +1199,18 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="18"/>
       <c r="K16" s="11"/>
       <c r="L16" s="5"/>
@@ -1210,36 +1219,36 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="18"/>
       <c r="K17" s="11"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="18">
         <v>42677</v>
       </c>
@@ -1250,18 +1259,18 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="18">
         <v>42686</v>
       </c>
@@ -1270,18 +1279,18 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="18">
         <v>42681</v>
       </c>
@@ -1290,54 +1299,54 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="18"/>
       <c r="K21" s="11"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="18"/>
       <c r="K22" s="11"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="18">
         <v>42681</v>
       </c>
@@ -1346,62 +1355,62 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="F24" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="18"/>
       <c r="K24" s="11"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="F25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="18"/>
       <c r="K25" s="11"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="F26" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="5"/>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
@@ -1414,24 +1423,24 @@
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="23">
+      <c r="F28" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="37">
         <v>42695</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="37">
         <v>42698</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="23">
         <v>4</v>
       </c>
       <c r="J28" s="11"/>
@@ -1440,18 +1449,18 @@
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="18">
         <v>42678</v>
       </c>
@@ -1460,26 +1469,26 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="5"/>
       <c r="E31" s="10"/>
       <c r="F31" s="4"/>
@@ -1492,8 +1501,8 @@
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="5"/>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
@@ -1506,24 +1515,24 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="23">
+      <c r="F33" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="37">
         <v>42699</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="37">
         <v>42701</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="23">
         <v>3</v>
       </c>
       <c r="J33" s="11"/>
@@ -1532,26 +1541,26 @@
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="5"/>
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
@@ -1564,24 +1573,24 @@
       <c r="M35" s="11"/>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="37">
         <v>42702</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="37">
         <v>42708</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="23">
         <v>7</v>
       </c>
       <c r="J36" s="11"/>
@@ -1590,116 +1599,116 @@
       <c r="M36" s="11"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
     <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
     <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
     <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="5"/>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
@@ -1727,23 +1736,23 @@
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="23">
+      <c r="G45" s="37">
         <v>42709</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="37">
         <v>42715</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="23">
         <v>7</v>
       </c>
       <c r="J45" s="11"/>
@@ -1753,15 +1762,15 @@
     </row>
     <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -1769,15 +1778,15 @@
     </row>
     <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -1785,15 +1794,15 @@
     </row>
     <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="32"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="25"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -1816,11 +1825,11 @@
     <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="18">
@@ -1854,11 +1863,11 @@
     <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="18">
@@ -1918,23 +1927,46 @@
       <c r="M55" s="11"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="29"/>
+      <c r="B56" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G33:G34"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B56:M56"/>
     <mergeCell ref="B4:B8"/>
@@ -1951,29 +1983,6 @@
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="H15:H26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="G15:G26"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I26"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\github\版本控制\ABE\开发相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目版本管理\安贝儿_WEB\开发相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>“安贝尔”web后台项目开发计划时间表      2016-10-24~2016-12-20</t>
   </si>
@@ -172,6 +172,9 @@
     <t>典例分享</t>
   </si>
   <si>
+    <t>卢江林/李钊</t>
+  </si>
+  <si>
     <t>育儿互动</t>
   </si>
   <si>
@@ -225,16 +228,7 @@
     <t>上线</t>
   </si>
   <si>
-    <t>李钊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>李钊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者：张顺    创建时间：2016-10-23 23:16:04    最后修改时间：2016-11-13 20:54:49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>作者：张顺    创建时间：2016-10-23 23:16:04    最后修改时间：2016-10-31 17:51:37</t>
   </si>
 </sst>
 </file>
@@ -462,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -519,24 +513,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,21 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:M56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -883,20 +874,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -937,111 +928,111 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="23">
         <v>42667</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="23">
         <v>42673</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="20">
         <v>7</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="18">
         <v>42669</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="18">
         <v>42667</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="18">
         <v>42668</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+      <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1050,13 +1041,13 @@
       <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="23">
         <v>42674</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="23">
         <v>42680</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="20">
         <v>7</v>
       </c>
       <c r="J9" s="18">
@@ -1069,18 +1060,18 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="19">
         <v>42673</v>
       </c>
@@ -1091,18 +1082,18 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="18">
         <v>42675</v>
       </c>
@@ -1111,18 +1102,18 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="18">
         <v>42672</v>
       </c>
@@ -1133,18 +1124,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="18">
         <v>42676</v>
       </c>
@@ -1155,23 +1146,23 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="18"/>
       <c r="K14" s="11"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1180,13 +1171,13 @@
       <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="23">
         <v>42681</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="23">
         <v>42694</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="20">
         <v>14</v>
       </c>
       <c r="J15" s="18">
@@ -1199,18 +1190,18 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="18"/>
       <c r="K16" s="11"/>
       <c r="L16" s="5"/>
@@ -1219,36 +1210,36 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="18"/>
       <c r="K17" s="11"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="18">
         <v>42677</v>
       </c>
@@ -1259,18 +1250,18 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="18">
         <v>42686</v>
       </c>
@@ -1279,18 +1270,18 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="18">
         <v>42681</v>
       </c>
@@ -1299,54 +1290,54 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="18"/>
       <c r="K21" s="11"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="18"/>
       <c r="K22" s="11"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="18">
         <v>42681</v>
       </c>
@@ -1355,62 +1346,62 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="F24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="18"/>
       <c r="K24" s="11"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="F25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="18"/>
       <c r="K25" s="11"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="F26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="5"/>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
@@ -1423,24 +1414,24 @@
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="37">
+      <c r="F28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="23">
         <v>42695</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="23">
         <v>42698</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="20">
         <v>4</v>
       </c>
       <c r="J28" s="11"/>
@@ -1449,18 +1440,18 @@
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="18">
         <v>42678</v>
       </c>
@@ -1469,26 +1460,26 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="5"/>
       <c r="E31" s="10"/>
       <c r="F31" s="4"/>
@@ -1501,8 +1492,8 @@
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="5"/>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
@@ -1515,24 +1506,24 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="23" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="37">
+      <c r="F33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="23">
         <v>42699</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="23">
         <v>42701</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="20">
         <v>3</v>
       </c>
       <c r="J33" s="11"/>
@@ -1541,26 +1532,26 @@
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="5"/>
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
@@ -1573,24 +1564,24 @@
       <c r="M35" s="11"/>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="23" t="s">
-        <v>50</v>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="23">
         <v>42702</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="23">
         <v>42708</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="20">
         <v>7</v>
       </c>
       <c r="J36" s="11"/>
@@ -1599,116 +1590,116 @@
       <c r="M36" s="11"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
     <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
     <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
     <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="5"/>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
@@ -1736,23 +1727,23 @@
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="26"/>
+      <c r="C45" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="30"/>
       <c r="E45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="37">
+      <c r="F45" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="23">
         <v>42709</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="23">
         <v>42715</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="20">
         <v>7</v>
       </c>
       <c r="J45" s="11"/>
@@ -1762,15 +1753,15 @@
     </row>
     <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -1778,15 +1769,15 @@
     </row>
     <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -1794,15 +1785,15 @@
     </row>
     <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="25"/>
+        <v>64</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="22"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -1825,11 +1816,11 @@
     <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="18">
@@ -1863,11 +1854,11 @@
     <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="18">
@@ -1927,46 +1918,23 @@
       <c r="M55" s="11"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="22"/>
+      <c r="B56" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I26"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="H15:H26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="G15:G26"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G33:G34"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B56:M56"/>
     <mergeCell ref="B4:B8"/>
@@ -1983,6 +1951,29 @@
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目版本管理\安贝儿_WEB\开发相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\版本控制\ABEweb端\开发相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +274,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +300,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -456,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -513,6 +525,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,6 +546,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,49 +588,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,42 +872,42 @@
   <dimension ref="B2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -927,112 +945,112 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="38">
         <v>42667</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="38">
         <v>42673</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="24">
         <v>7</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="31"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="31"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="18">
         <v>42669</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="31"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="18">
         <v>42667</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="32"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="18">
         <v>42668</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1041,13 +1059,13 @@
       <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="38">
         <v>42674</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="38">
         <v>42680</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="24">
         <v>7</v>
       </c>
       <c r="J9" s="18">
@@ -1059,19 +1077,19 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="34"/>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="19">
         <v>42673</v>
       </c>
@@ -1081,19 +1099,19 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="34"/>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="18">
         <v>42675</v>
       </c>
@@ -1101,19 +1119,19 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="34"/>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="18">
         <v>42672</v>
       </c>
@@ -1123,19 +1141,19 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="34"/>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="18">
         <v>42676</v>
       </c>
@@ -1145,24 +1163,24 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="35"/>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="18"/>
       <c r="K14" s="11"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1171,13 +1189,13 @@
       <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="38">
         <v>42681</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="38">
         <v>42694</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="24">
         <v>14</v>
       </c>
       <c r="J15" s="18">
@@ -1189,19 +1207,19 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="18"/>
       <c r="K16" s="11"/>
       <c r="L16" s="5"/>
@@ -1209,37 +1227,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="18"/>
       <c r="K17" s="11"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="18">
         <v>42677</v>
       </c>
@@ -1249,19 +1267,19 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="18">
         <v>42686</v>
       </c>
@@ -1269,19 +1287,19 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="18">
         <v>42681</v>
       </c>
@@ -1289,55 +1307,55 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="18"/>
       <c r="K21" s="11"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="18"/>
       <c r="K22" s="11"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="18">
         <v>42681</v>
       </c>
@@ -1345,63 +1363,63 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="18"/>
       <c r="K24" s="11"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="18"/>
       <c r="K25" s="11"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="5"/>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
@@ -1413,10 +1431,10 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20" t="s">
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -1425,13 +1443,13 @@
       <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="38">
         <v>42695</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="38">
         <v>42698</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="24">
         <v>4</v>
       </c>
       <c r="J28" s="11"/>
@@ -1439,19 +1457,19 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="18">
         <v>42678</v>
       </c>
@@ -1459,27 +1477,27 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="5"/>
       <c r="E31" s="10"/>
       <c r="F31" s="4"/>
@@ -1491,9 +1509,9 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="5"/>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
@@ -1505,10 +1523,10 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20" t="s">
+    <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -1517,13 +1535,13 @@
       <c r="F33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="38">
         <v>42699</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="38">
         <v>42701</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="24">
         <v>3</v>
       </c>
       <c r="J33" s="11"/>
@@ -1531,27 +1549,27 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="5"/>
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
@@ -1563,10 +1581,10 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20" t="s">
+    <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -1575,13 +1593,13 @@
       <c r="F36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="38">
         <v>42702</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="38">
         <v>42708</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="24">
         <v>7</v>
       </c>
       <c r="J36" s="11"/>
@@ -1589,117 +1607,117 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="14" t="s">
+    <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+    <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+    <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+    <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+    <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
+    <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+    <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="5"/>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
@@ -1711,7 +1729,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="11"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1725,25 +1743,25 @@
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="30"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="38">
         <v>42709</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="38">
         <v>42715</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="24">
         <v>7</v>
       </c>
       <c r="J45" s="11"/>
@@ -1751,55 +1769,55 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="11"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="21"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="25"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="21"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="32"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="22"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -1813,7 +1831,7 @@
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
         <v>65</v>
@@ -1837,7 +1855,7 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -1851,7 +1869,7 @@
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
         <v>66</v>
@@ -1875,7 +1893,7 @@
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -1889,7 +1907,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -1903,7 +1921,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -1917,24 +1935,47 @@
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="s">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="29"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G33:G34"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B56:M56"/>
     <mergeCell ref="B4:B8"/>
@@ -1951,29 +1992,6 @@
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="H15:H26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="G15:G26"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I26"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发相关文档/开发时间计划表第一版.xlsx
+++ b/开发相关文档/开发时间计划表第一版.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\版本控制\ABEweb端\开发相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\版本控制\安贝尔WEB端\开发相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,6 +525,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,15 +561,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,21 +592,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,43 +871,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="24.875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -945,112 +945,112 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24">
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="25">
         <v>42667</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="25">
         <v>42673</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>7</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="28"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="18">
         <v>42669</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="18">
         <v>42667</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="18">
         <v>42668</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
         <v>2</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1059,13 +1059,13 @@
       <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="25">
         <v>42674</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="25">
         <v>42680</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>7</v>
       </c>
       <c r="J9" s="18">
@@ -1077,19 +1077,19 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="31"/>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="19">
         <v>42673</v>
       </c>
@@ -1099,19 +1099,19 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="31"/>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="18">
         <v>42675</v>
       </c>
@@ -1119,19 +1119,19 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="31"/>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="18">
         <v>42672</v>
       </c>
@@ -1141,19 +1141,19 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="31"/>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="18">
         <v>42676</v>
       </c>
@@ -1163,24 +1163,24 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="32"/>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="18"/>
       <c r="K14" s="11"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1189,13 +1189,13 @@
       <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="25">
         <v>42681</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="25">
         <v>42694</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="22">
         <v>14</v>
       </c>
       <c r="J15" s="18">
@@ -1207,57 +1207,59 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="18">
+        <v>42708</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="18"/>
       <c r="K17" s="11"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="18">
         <v>42677</v>
       </c>
@@ -1267,19 +1269,19 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="18">
         <v>42686</v>
       </c>
@@ -1287,19 +1289,19 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="18">
         <v>42681</v>
       </c>
@@ -1307,55 +1309,55 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="18"/>
       <c r="K21" s="11"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="18"/>
       <c r="K22" s="11"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="18">
         <v>42681</v>
       </c>
@@ -1363,63 +1365,63 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="18"/>
       <c r="K24" s="11"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="18"/>
       <c r="K25" s="11"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="5"/>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
@@ -1431,10 +1433,10 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24" t="s">
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -1443,13 +1445,13 @@
       <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="25">
         <v>42695</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="25">
         <v>42698</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="22">
         <v>4</v>
       </c>
       <c r="J28" s="11"/>
@@ -1457,19 +1459,19 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="18">
         <v>42678</v>
       </c>
@@ -1477,27 +1479,27 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="5"/>
       <c r="E31" s="10"/>
       <c r="F31" s="4"/>
@@ -1509,9 +1511,9 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="5"/>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
@@ -1523,10 +1525,10 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24" t="s">
+    <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -1535,13 +1537,13 @@
       <c r="F33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="25">
         <v>42699</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="25">
         <v>42701</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="22">
         <v>3</v>
       </c>
       <c r="J33" s="11"/>
@@ -1549,27 +1551,27 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="5"/>
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
@@ -1581,10 +1583,10 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="24" t="s">
+    <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -1593,13 +1595,13 @@
       <c r="F36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="25">
         <v>42702</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="25">
         <v>42708</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="22">
         <v>7</v>
       </c>
       <c r="J36" s="11"/>
@@ -1607,117 +1609,117 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="41" t="s">
+    <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+    <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+    <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+    <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+    <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
+    <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+    <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="5"/>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
@@ -1729,7 +1731,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1743,25 +1745,25 @@
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="27"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="25">
         <v>42709</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="25">
         <v>42715</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="22">
         <v>7</v>
       </c>
       <c r="J45" s="11"/>
@@ -1769,55 +1771,55 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="25"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="25"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="29"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="26"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -1831,7 +1833,7 @@
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
         <v>65</v>
@@ -1855,7 +1857,7 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -1869,7 +1871,7 @@
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
         <v>66</v>
@@ -1893,7 +1895,7 @@
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -1907,7 +1909,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -1921,7 +1923,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -1935,47 +1937,24 @@
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="21" t="s">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="23"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I26"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="H15:H26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="G15:G26"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G33:G34"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B56:M56"/>
     <mergeCell ref="B4:B8"/>
@@ -1992,6 +1971,29 @@
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
